--- a/doc/Examples/data-certificates/data-certificate.xlsx
+++ b/doc/Examples/data-certificates/data-certificate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\JS-SVG-Client\doc\Examples\data-certificates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26BD4E05-78D2-4AC9-B6C5-C3382EE0C1AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED56C99-4BD4-4029-B489-106DB85F2648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{D3D2CCF8-3564-424C-ADE9-C34B0C3651B7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{D3D2CCF8-3564-424C-ADE9-C34B0C3651B7}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="2" r:id="rId1"/>
@@ -1372,8 +1372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E51FEEF-B7B9-4D6C-A6B6-487F2AA15E77}">
   <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1491,7 +1491,7 @@
         <v>169</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>190</v>
@@ -3784,7 +3784,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADC823C5-C23A-4C9F-B3E6-A165C876A39D}">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+    <sheetView topLeftCell="G1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
